--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WI.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>STATE</t>
   </si>
@@ -44,7 +44,7 @@
     <t>2 For The Money</t>
   </si>
   <si>
-    <t>2019-03-07</t>
+    <t>2019-03-12</t>
   </si>
   <si>
     <t>Food Series</t>
@@ -56,15 +56,15 @@
     <t xml:space="preserve">A Latte Cash </t>
   </si>
   <si>
+    <t>Winter Time Winnings</t>
+  </si>
+  <si>
     <t>5X The Money</t>
   </si>
   <si>
     <t>Cheese Series</t>
   </si>
   <si>
-    <t>Winter Time Winnings</t>
-  </si>
-  <si>
     <t>Blackjack</t>
   </si>
   <si>
@@ -104,39 +104,39 @@
     <t xml:space="preserve">Fish &amp; Chips </t>
   </si>
   <si>
+    <t>Crossword</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Farm Fresh Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Times Lucky </t>
+  </si>
+  <si>
+    <t>Cash In A Flash</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus BUCKS</t>
+  </si>
+  <si>
+    <t>Money Quest</t>
+  </si>
+  <si>
+    <t>Cash X10</t>
+  </si>
+  <si>
+    <t>Joker's Wild</t>
+  </si>
+  <si>
+    <t>10X the Money</t>
+  </si>
+  <si>
     <t>Kitty Cash Doggy Dough</t>
   </si>
   <si>
-    <t>Crossword</t>
-  </si>
-  <si>
-    <t>Farm Fresh Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Times Lucky </t>
-  </si>
-  <si>
-    <t>Luck</t>
-  </si>
-  <si>
-    <t>Cash In A Flash</t>
-  </si>
-  <si>
-    <t>Tyrannosaurus BUCKS</t>
-  </si>
-  <si>
-    <t>Money Quest</t>
-  </si>
-  <si>
-    <t>Joker's Wild</t>
-  </si>
-  <si>
-    <t>Cash X10</t>
-  </si>
-  <si>
-    <t>10X the Money</t>
-  </si>
-  <si>
     <t>Love To Win</t>
   </si>
   <si>
@@ -182,15 +182,15 @@
     <t>Fruit Explosion</t>
   </si>
   <si>
+    <t>Lucky Charm Slingo</t>
+  </si>
+  <si>
+    <t>Here Bingo!</t>
+  </si>
+  <si>
     <t>Wild Bingo</t>
   </si>
   <si>
-    <t>Here Bingo!</t>
-  </si>
-  <si>
-    <t>Lucky Charm Slingo</t>
-  </si>
-  <si>
     <t>Badger State Slingo</t>
   </si>
   <si>
@@ -266,6 +266,9 @@
     <t>$10.00 Games</t>
   </si>
   <si>
+    <t>Double Dollar Crossword</t>
+  </si>
+  <si>
     <t>Winner's Circle</t>
   </si>
   <si>
@@ -365,10 +368,10 @@
     <t>$10,000 Cash</t>
   </si>
   <si>
+    <t>Golden Millions</t>
+  </si>
+  <si>
     <t>Magnificent Millions</t>
-  </si>
-  <si>
-    <t>Golden Millions</t>
   </si>
   <si>
     <t>Wisconsin Millions</t>
@@ -713,7 +716,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,7 +758,7 @@
         <v>2078</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -832,10 +835,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>2148</v>
+        <v>2117</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -852,10 +855,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>579</v>
+        <v>2148</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -872,10 +875,10 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>2117</v>
+        <v>579</v>
       </c>
       <c r="E8">
-        <v>86</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1132,10 +1135,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>2095</v>
+        <v>2050</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1152,10 +1155,10 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>2050</v>
+        <v>2099</v>
       </c>
       <c r="E22">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
         <v>9</v>
@@ -1212,10 +1215,10 @@
         <v>33</v>
       </c>
       <c r="D25">
-        <v>2099</v>
+        <v>2101</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1232,10 +1235,10 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1252,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>2102</v>
+        <v>2030</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1272,7 +1275,7 @@
         <v>36</v>
       </c>
       <c r="D28">
-        <v>2030</v>
+        <v>2085</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1312,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="D30">
-        <v>2085</v>
+        <v>2060</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1332,7 +1335,7 @@
         <v>39</v>
       </c>
       <c r="D31">
-        <v>2060</v>
+        <v>2095</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1632,7 +1635,7 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <v>2049</v>
+        <v>2046</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1672,7 +1675,7 @@
         <v>57</v>
       </c>
       <c r="D48">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>2134</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54" t="s">
         <v>9</v>
@@ -1835,7 +1838,7 @@
         <v>2123</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F56" t="s">
         <v>9</v>
@@ -1895,7 +1898,7 @@
         <v>2125</v>
       </c>
       <c r="E59">
-        <v>523</v>
+        <v>469</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -2172,10 +2175,10 @@
         <v>83</v>
       </c>
       <c r="D73">
-        <v>2094</v>
+        <v>2154</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2192,7 +2195,7 @@
         <v>84</v>
       </c>
       <c r="D74">
-        <v>2151</v>
+        <v>2094</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2212,10 +2215,10 @@
         <v>85</v>
       </c>
       <c r="D75">
-        <v>2124</v>
+        <v>2151</v>
       </c>
       <c r="E75">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2232,10 +2235,10 @@
         <v>86</v>
       </c>
       <c r="D76">
-        <v>2055</v>
+        <v>2124</v>
       </c>
       <c r="E76">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2252,10 +2255,10 @@
         <v>87</v>
       </c>
       <c r="D77">
-        <v>2157</v>
+        <v>2055</v>
       </c>
       <c r="E77">
-        <v>2901</v>
+        <v>19</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2272,10 +2275,10 @@
         <v>88</v>
       </c>
       <c r="D78">
-        <v>2135</v>
+        <v>2157</v>
       </c>
       <c r="E78">
-        <v>223</v>
+        <v>2641</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2292,10 +2295,10 @@
         <v>89</v>
       </c>
       <c r="D79">
-        <v>2043</v>
+        <v>2135</v>
       </c>
       <c r="E79">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2312,10 +2315,10 @@
         <v>90</v>
       </c>
       <c r="D80">
-        <v>2087</v>
+        <v>2043</v>
       </c>
       <c r="E80">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2332,10 +2335,10 @@
         <v>91</v>
       </c>
       <c r="D81">
-        <v>2121</v>
+        <v>2087</v>
       </c>
       <c r="E81">
-        <v>19565</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2352,10 +2355,10 @@
         <v>92</v>
       </c>
       <c r="D82">
-        <v>2066</v>
+        <v>2121</v>
       </c>
       <c r="E82">
-        <v>170</v>
+        <v>18446</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2372,10 +2375,10 @@
         <v>93</v>
       </c>
       <c r="D83">
-        <v>2052</v>
+        <v>2066</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2392,7 +2395,7 @@
         <v>94</v>
       </c>
       <c r="D84">
-        <v>2126</v>
+        <v>2052</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2412,7 +2415,7 @@
         <v>95</v>
       </c>
       <c r="D85">
-        <v>2107</v>
+        <v>2126</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2432,7 +2435,7 @@
         <v>96</v>
       </c>
       <c r="D86">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2452,7 +2455,7 @@
         <v>97</v>
       </c>
       <c r="D87">
-        <v>2084</v>
+        <v>2114</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2472,7 +2475,7 @@
         <v>98</v>
       </c>
       <c r="D88">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2492,7 +2495,7 @@
         <v>99</v>
       </c>
       <c r="D89">
-        <v>2105</v>
+        <v>2086</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2506,13 +2509,13 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" t="s">
         <v>100</v>
       </c>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
       <c r="D90">
-        <v>2113</v>
+        <v>2105</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2526,16 +2529,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
         <v>102</v>
       </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
       <c r="D91">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="s">
         <v>9</v>
@@ -2546,13 +2549,13 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
       </c>
       <c r="D92">
-        <v>2131</v>
+        <v>2112</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2566,13 +2569,13 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
         <v>105</v>
       </c>
       <c r="D93">
-        <v>2111</v>
+        <v>2131</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2586,16 +2589,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" t="s">
         <v>106</v>
       </c>
       <c r="D94">
-        <v>2133</v>
+        <v>2111</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2606,16 +2609,16 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
         <v>107</v>
       </c>
       <c r="D95">
-        <v>2088</v>
+        <v>2133</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -2626,13 +2629,13 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" t="s">
         <v>108</v>
       </c>
       <c r="D96">
-        <v>2075</v>
+        <v>2088</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2646,13 +2649,13 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
         <v>109</v>
       </c>
       <c r="D97">
-        <v>2067</v>
+        <v>2075</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2666,13 +2669,13 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
       </c>
       <c r="D98">
-        <v>2118</v>
+        <v>2067</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2686,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
       </c>
       <c r="D99">
-        <v>2044</v>
+        <v>2118</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2706,13 +2709,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
       </c>
       <c r="D100">
-        <v>2083</v>
+        <v>2044</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2726,13 +2729,13 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
       </c>
       <c r="D101">
-        <v>2047</v>
+        <v>2083</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2746,16 +2749,16 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
         <v>114</v>
       </c>
-      <c r="C102" t="s">
-        <v>115</v>
-      </c>
       <c r="D102">
-        <v>655</v>
+        <v>2047</v>
       </c>
       <c r="E102">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F102" t="s">
         <v>9</v>
@@ -2766,16 +2769,16 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C103" t="s">
         <v>116</v>
       </c>
       <c r="D103">
-        <v>2106</v>
+        <v>655</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -2786,7 +2789,7 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
         <v>117</v>
@@ -2806,16 +2809,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C105" t="s">
         <v>118</v>
       </c>
       <c r="D105">
-        <v>2021</v>
+        <v>2106</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -2826,18 +2829,38 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C106" t="s">
         <v>119</v>
       </c>
       <c r="D106">
+        <v>2021</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107">
         <v>2057</v>
       </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106" t="s">
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
         <v>9</v>
       </c>
     </row>

--- a/scraper/top_remaining_spreadsheets_states/top_remaining_WI.xlsx
+++ b/scraper/top_remaining_spreadsheets_states/top_remaining_WI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="130">
   <si>
     <t>STATE</t>
   </si>
@@ -41,27 +41,27 @@
     <t>$1.00 Games</t>
   </si>
   <si>
+    <t>Food Series</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
     <t>2 For The Money</t>
   </si>
   <si>
-    <t>2019-03-12</t>
-  </si>
-  <si>
-    <t>Food Series</t>
-  </si>
-  <si>
     <t>Go Scratch Go!</t>
   </si>
   <si>
     <t xml:space="preserve">A Latte Cash </t>
   </si>
   <si>
+    <t>5X The Money</t>
+  </si>
+  <si>
     <t>Winter Time Winnings</t>
   </si>
   <si>
-    <t>5X The Money</t>
-  </si>
-  <si>
     <t>Cheese Series</t>
   </si>
   <si>
@@ -89,15 +89,21 @@
     <t>$2.00 Games</t>
   </si>
   <si>
+    <t xml:space="preserve">Hearts </t>
+  </si>
+  <si>
     <t>Lucky Pairs</t>
   </si>
   <si>
+    <t>Diamond Dazzler</t>
+  </si>
+  <si>
+    <t>Triple Win</t>
+  </si>
+  <si>
     <t>10X The Money</t>
   </si>
   <si>
-    <t>Triple Win</t>
-  </si>
-  <si>
     <t>Easy as 1-2-3</t>
   </si>
   <si>
@@ -107,39 +113,39 @@
     <t>Crossword</t>
   </si>
   <si>
+    <t>Farm Fresh Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 Times Lucky </t>
+  </si>
+  <si>
+    <t>Cash In A Flash</t>
+  </si>
+  <si>
+    <t>Tyrannosaurus BUCKS</t>
+  </si>
+  <si>
+    <t>Cash X10</t>
+  </si>
+  <si>
+    <t>Money Quest</t>
+  </si>
+  <si>
+    <t>Joker's Wild</t>
+  </si>
+  <si>
+    <t>10X the Money</t>
+  </si>
+  <si>
+    <t>Kitty Cash Doggy Dough</t>
+  </si>
+  <si>
+    <t>Love To Win</t>
+  </si>
+  <si>
     <t>Luck</t>
   </si>
   <si>
-    <t>Farm Fresh Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 Times Lucky </t>
-  </si>
-  <si>
-    <t>Cash In A Flash</t>
-  </si>
-  <si>
-    <t>Tyrannosaurus BUCKS</t>
-  </si>
-  <si>
-    <t>Money Quest</t>
-  </si>
-  <si>
-    <t>Cash X10</t>
-  </si>
-  <si>
-    <t>Joker's Wild</t>
-  </si>
-  <si>
-    <t>10X the Money</t>
-  </si>
-  <si>
-    <t>Kitty Cash Doggy Dough</t>
-  </si>
-  <si>
-    <t>Love To Win</t>
-  </si>
-  <si>
     <t>100 Bucks</t>
   </si>
   <si>
@@ -161,18 +167,24 @@
     <t>S'More Slingo</t>
   </si>
   <si>
+    <t>Bullseye Bingo</t>
+  </si>
+  <si>
+    <t>Cha-Ching Slingo</t>
+  </si>
+  <si>
     <t>Magic Word Crossword</t>
   </si>
   <si>
+    <t>Polka Crossword</t>
+  </si>
+  <si>
     <t>Famous Racing Sausages™</t>
   </si>
   <si>
     <t>Tetris®</t>
   </si>
   <si>
-    <t>Polka Crossword</t>
-  </si>
-  <si>
     <t>Naughty or Nice Crossword</t>
   </si>
   <si>
@@ -182,15 +194,15 @@
     <t>Fruit Explosion</t>
   </si>
   <si>
+    <t>Here Bingo!</t>
+  </si>
+  <si>
+    <t>Wild Bingo</t>
+  </si>
+  <si>
     <t>Lucky Charm Slingo</t>
   </si>
   <si>
-    <t>Here Bingo!</t>
-  </si>
-  <si>
-    <t>Wild Bingo</t>
-  </si>
-  <si>
     <t>Badger State Slingo</t>
   </si>
   <si>
@@ -200,49 +212,58 @@
     <t>Lucky Letter Crossword</t>
   </si>
   <si>
+    <t>In The Zone Crossword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Mega Bonus </t>
+  </si>
+  <si>
+    <t>20X The Money</t>
+  </si>
+  <si>
+    <t>Extend Your Cash</t>
+  </si>
+  <si>
+    <t>Cashilicious</t>
+  </si>
+  <si>
+    <t>Score More!</t>
+  </si>
+  <si>
+    <t>Triple Play</t>
+  </si>
+  <si>
+    <t>Supper Club Cash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jolly $500's </t>
+  </si>
+  <si>
+    <t>Land Of Milk And Money</t>
+  </si>
+  <si>
+    <t>In The Green</t>
+  </si>
+  <si>
+    <t>Platinum Crossword</t>
+  </si>
+  <si>
+    <t>Wild Cherry Crossword</t>
+  </si>
+  <si>
+    <t>5 Star Crossword</t>
+  </si>
+  <si>
     <t>Road To Riches</t>
   </si>
   <si>
-    <t>20X The Money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Super Mega Bonus </t>
-  </si>
-  <si>
     <t>Mystery Letter Crossword</t>
   </si>
   <si>
-    <t>Extend Your Cash</t>
-  </si>
-  <si>
-    <t>Triple Play</t>
-  </si>
-  <si>
-    <t>Cashilicious</t>
-  </si>
-  <si>
-    <t>Supper Club Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jolly $500's </t>
-  </si>
-  <si>
-    <t>Land Of Milk And Money</t>
-  </si>
-  <si>
-    <t>In The Green</t>
-  </si>
-  <si>
-    <t>Platinum Crossword</t>
-  </si>
-  <si>
-    <t>5 Star Crossword</t>
-  </si>
-  <si>
     <t>Pack Attack</t>
   </si>
   <si>
-    <t>Wild Cherry Crossword</t>
+    <t>Vegas Nights</t>
   </si>
   <si>
     <t>30 Years of Fun!</t>
@@ -251,15 +272,12 @@
     <t>Cash Up</t>
   </si>
   <si>
-    <t>Vegas Nights</t>
+    <t>Gold Rush</t>
   </si>
   <si>
     <t>Boost Your Bucks</t>
   </si>
   <si>
-    <t>Gold Rush</t>
-  </si>
-  <si>
     <t>Deluxe Bucks</t>
   </si>
   <si>
@@ -332,46 +350,55 @@
     <t>Hit It Big</t>
   </si>
   <si>
+    <t>Maximum Green</t>
+  </si>
+  <si>
     <t>Power Up Your Crossword</t>
   </si>
   <si>
+    <t>Money Bag Crossword</t>
+  </si>
+  <si>
+    <t>$100,000 Large</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jackpot Payout </t>
   </si>
   <si>
-    <t>$100,000 Large</t>
-  </si>
-  <si>
     <t>Cafe Crossword</t>
   </si>
   <si>
     <t>$200,000 Cash Reserve</t>
   </si>
   <si>
+    <t>Pot Of Gold Crossword</t>
+  </si>
+  <si>
     <t>Mega Crossword</t>
   </si>
   <si>
-    <t>Pot Of Gold Crossword</t>
-  </si>
-  <si>
     <t>$200 Grand</t>
   </si>
   <si>
+    <t>Cash Attack</t>
+  </si>
+  <si>
     <t>Epic Multiplier</t>
   </si>
   <si>
-    <t>Cash Attack</t>
-  </si>
-  <si>
     <t>$30.00 Games</t>
   </si>
   <si>
     <t>$10,000 Cash</t>
   </si>
   <si>
+    <t>$500,000 Crossword</t>
+  </si>
+  <si>
+    <t>Magnificent Millions</t>
+  </si>
+  <si>
     <t>Golden Millions</t>
-  </si>
-  <si>
-    <t>Magnificent Millions</t>
   </si>
   <si>
     <t>Wisconsin Millions</t>
@@ -716,7 +743,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2078</v>
+        <v>629</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -775,10 +802,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>629</v>
+        <v>2078</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -835,10 +862,10 @@
         <v>13</v>
       </c>
       <c r="D6">
-        <v>2117</v>
+        <v>2148</v>
       </c>
       <c r="E6">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -855,10 +882,10 @@
         <v>14</v>
       </c>
       <c r="D7">
-        <v>2148</v>
+        <v>2117</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -1035,10 +1062,10 @@
         <v>24</v>
       </c>
       <c r="D16">
-        <v>2062</v>
+        <v>2145</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>9</v>
@@ -1055,10 +1082,10 @@
         <v>25</v>
       </c>
       <c r="D17">
-        <v>2149</v>
+        <v>2062</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1075,10 +1102,10 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2159</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1095,10 +1122,10 @@
         <v>27</v>
       </c>
       <c r="D19">
-        <v>2144</v>
+        <v>2024</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1115,7 +1142,7 @@
         <v>28</v>
       </c>
       <c r="D20">
-        <v>2096</v>
+        <v>2149</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1135,10 +1162,10 @@
         <v>29</v>
       </c>
       <c r="D21">
-        <v>2050</v>
+        <v>2144</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1155,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="D22">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1175,10 +1202,10 @@
         <v>31</v>
       </c>
       <c r="D23">
-        <v>2031</v>
+        <v>2050</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
         <v>9</v>
@@ -1195,7 +1222,7 @@
         <v>32</v>
       </c>
       <c r="D24">
-        <v>2129</v>
+        <v>2031</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1215,7 +1242,7 @@
         <v>33</v>
       </c>
       <c r="D25">
-        <v>2101</v>
+        <v>2129</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1235,10 +1262,10 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>9</v>
@@ -1255,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="D27">
-        <v>2030</v>
+        <v>2102</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1295,7 +1322,7 @@
         <v>37</v>
       </c>
       <c r="D29">
-        <v>2063</v>
+        <v>2030</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1315,7 +1342,7 @@
         <v>38</v>
       </c>
       <c r="D30">
-        <v>2060</v>
+        <v>2063</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1335,7 +1362,7 @@
         <v>39</v>
       </c>
       <c r="D31">
-        <v>2095</v>
+        <v>2060</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1355,7 +1382,7 @@
         <v>40</v>
       </c>
       <c r="D32">
-        <v>2059</v>
+        <v>2095</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1375,7 +1402,7 @@
         <v>41</v>
       </c>
       <c r="D33">
-        <v>2029</v>
+        <v>2059</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1389,16 +1416,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
         <v>42</v>
       </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
       <c r="D34">
-        <v>2163</v>
+        <v>2099</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -1409,16 +1436,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35">
-        <v>2120</v>
+        <v>2029</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="s">
         <v>9</v>
@@ -1429,16 +1456,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>45</v>
       </c>
       <c r="D36">
-        <v>2152</v>
+        <v>2163</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>9</v>
@@ -1449,13 +1476,13 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
         <v>46</v>
       </c>
       <c r="D37">
-        <v>2053</v>
+        <v>2120</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1469,16 +1496,16 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
         <v>47</v>
       </c>
       <c r="D38">
-        <v>2127</v>
+        <v>2152</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>9</v>
@@ -1489,16 +1516,16 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
       </c>
       <c r="D39">
-        <v>2089</v>
+        <v>2053</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>9</v>
@@ -1509,16 +1536,16 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40">
-        <v>2069</v>
+        <v>2127</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>9</v>
@@ -1529,16 +1556,16 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>50</v>
       </c>
       <c r="D41">
-        <v>2128</v>
+        <v>2153</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>9</v>
@@ -1549,16 +1576,16 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="D42">
-        <v>2119</v>
+        <v>2147</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>9</v>
@@ -1569,13 +1596,13 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>52</v>
       </c>
       <c r="D43">
-        <v>2116</v>
+        <v>2089</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1589,13 +1616,13 @@
         <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
       </c>
       <c r="D44">
-        <v>2081</v>
+        <v>2119</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1609,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" t="s">
         <v>54</v>
       </c>
       <c r="D45">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1629,13 +1656,13 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
       </c>
       <c r="D46">
-        <v>2046</v>
+        <v>2128</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1649,13 +1676,13 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C47" t="s">
         <v>56</v>
       </c>
       <c r="D47">
-        <v>2080</v>
+        <v>2116</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1669,13 +1696,13 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>57</v>
       </c>
       <c r="D48">
-        <v>2049</v>
+        <v>2081</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1689,13 +1716,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>58</v>
       </c>
       <c r="D49">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1709,16 +1736,16 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>60</v>
-      </c>
       <c r="D50">
-        <v>2026</v>
+        <v>2080</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="s">
         <v>9</v>
@@ -1729,16 +1756,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51">
-        <v>2139</v>
+        <v>2049</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
         <v>9</v>
@@ -1749,16 +1776,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52">
-        <v>2150</v>
+        <v>2046</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
@@ -1769,16 +1796,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>2093</v>
+        <v>2074</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
         <v>9</v>
@@ -1789,13 +1816,13 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54">
-        <v>2134</v>
+        <v>2026</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1809,16 +1836,16 @@
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55">
-        <v>777</v>
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
       </c>
       <c r="D55">
-        <v>2061</v>
+        <v>2164</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>9</v>
@@ -1829,13 +1856,13 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C56">
+        <v>777</v>
       </c>
       <c r="D56">
-        <v>2123</v>
+        <v>2061</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -1849,13 +1876,13 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>66</v>
       </c>
       <c r="D57">
-        <v>2048</v>
+        <v>2093</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1869,16 +1896,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
         <v>67</v>
       </c>
       <c r="D58">
-        <v>2137</v>
+        <v>2150</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>9</v>
@@ -1889,16 +1916,16 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
       </c>
       <c r="D59">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="E59">
-        <v>469</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
         <v>9</v>
@@ -1909,16 +1936,16 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>69</v>
       </c>
       <c r="D60">
-        <v>2115</v>
+        <v>2137</v>
       </c>
       <c r="E60">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>9</v>
@@ -1929,16 +1956,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C61" t="s">
         <v>70</v>
       </c>
       <c r="D61">
-        <v>2090</v>
+        <v>2142</v>
       </c>
       <c r="E61">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>9</v>
@@ -1949,16 +1976,16 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>71</v>
       </c>
       <c r="D62">
-        <v>2091</v>
+        <v>2048</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>9</v>
@@ -1969,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C63" t="s">
         <v>72</v>
       </c>
       <c r="D63">
-        <v>2054</v>
+        <v>2125</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="F63" t="s">
         <v>9</v>
@@ -1989,16 +2016,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>73</v>
       </c>
       <c r="D64">
-        <v>2109</v>
+        <v>2115</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F64" t="s">
         <v>9</v>
@@ -2009,16 +2036,16 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>74</v>
       </c>
       <c r="D65">
-        <v>2104</v>
+        <v>2090</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
@@ -2029,13 +2056,13 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C66" t="s">
         <v>75</v>
       </c>
       <c r="D66">
-        <v>2082</v>
+        <v>2091</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2049,13 +2076,13 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
         <v>76</v>
       </c>
       <c r="D67">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2069,13 +2096,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C68" t="s">
         <v>77</v>
       </c>
       <c r="D68">
-        <v>2064</v>
+        <v>2082</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2089,13 +2116,13 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
         <v>78</v>
       </c>
       <c r="D69">
-        <v>2070</v>
+        <v>2109</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2109,13 +2136,13 @@
         <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
         <v>79</v>
       </c>
       <c r="D70">
-        <v>2122</v>
+        <v>2139</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2129,13 +2156,13 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
         <v>80</v>
       </c>
       <c r="D71">
-        <v>2023</v>
+        <v>2134</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2149,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
         <v>81</v>
       </c>
       <c r="D72">
-        <v>2092</v>
+        <v>2104</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2169,16 +2196,16 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
+        <v>63</v>
+      </c>
+      <c r="C73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
       <c r="D73">
-        <v>2154</v>
+        <v>2070</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
         <v>9</v>
@@ -2189,16 +2216,16 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D74">
-        <v>2094</v>
+        <v>2058</v>
       </c>
       <c r="E74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F74" t="s">
         <v>9</v>
@@ -2209,16 +2236,16 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D75">
-        <v>2151</v>
+        <v>2064</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
         <v>9</v>
@@ -2229,16 +2256,16 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>2124</v>
+        <v>2023</v>
       </c>
       <c r="E76">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
@@ -2249,16 +2276,16 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D77">
-        <v>2055</v>
+        <v>2122</v>
       </c>
       <c r="E77">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F77" t="s">
         <v>9</v>
@@ -2269,16 +2296,16 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78">
-        <v>2157</v>
+        <v>2092</v>
       </c>
       <c r="E78">
-        <v>2641</v>
+        <v>0</v>
       </c>
       <c r="F78" t="s">
         <v>9</v>
@@ -2289,16 +2316,16 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
         <v>89</v>
       </c>
       <c r="D79">
-        <v>2135</v>
+        <v>2154</v>
       </c>
       <c r="E79">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -2309,16 +2336,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C80" t="s">
         <v>90</v>
       </c>
       <c r="D80">
-        <v>2043</v>
+        <v>2094</v>
       </c>
       <c r="E80">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -2329,16 +2356,16 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C81" t="s">
         <v>91</v>
       </c>
       <c r="D81">
-        <v>2087</v>
+        <v>2151</v>
       </c>
       <c r="E81">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>9</v>
@@ -2349,16 +2376,16 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
         <v>92</v>
       </c>
       <c r="D82">
-        <v>2121</v>
+        <v>2124</v>
       </c>
       <c r="E82">
-        <v>18446</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
         <v>9</v>
@@ -2369,16 +2396,16 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C83" t="s">
         <v>93</v>
       </c>
       <c r="D83">
-        <v>2066</v>
+        <v>2055</v>
       </c>
       <c r="E83">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>9</v>
@@ -2389,16 +2416,16 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
         <v>94</v>
       </c>
       <c r="D84">
-        <v>2052</v>
+        <v>2157</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="F84" t="s">
         <v>9</v>
@@ -2409,16 +2436,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
       </c>
       <c r="D85">
-        <v>2126</v>
+        <v>2135</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F85" t="s">
         <v>9</v>
@@ -2429,16 +2456,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
         <v>96</v>
       </c>
       <c r="D86">
-        <v>2107</v>
+        <v>2043</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
         <v>9</v>
@@ -2449,16 +2476,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>97</v>
       </c>
       <c r="D87">
-        <v>2114</v>
+        <v>2087</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F87" t="s">
         <v>9</v>
@@ -2469,16 +2496,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C88" t="s">
         <v>98</v>
       </c>
       <c r="D88">
-        <v>2084</v>
+        <v>2121</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>29856</v>
       </c>
       <c r="F88" t="s">
         <v>9</v>
@@ -2489,16 +2516,16 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C89" t="s">
         <v>99</v>
       </c>
       <c r="D89">
-        <v>2086</v>
+        <v>2066</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
         <v>9</v>
@@ -2509,13 +2536,13 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C90" t="s">
         <v>100</v>
       </c>
       <c r="D90">
-        <v>2105</v>
+        <v>2052</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2529,13 +2556,13 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" t="s">
         <v>101</v>
       </c>
-      <c r="C91" t="s">
-        <v>102</v>
-      </c>
       <c r="D91">
-        <v>2113</v>
+        <v>2126</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2549,16 +2576,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D92">
-        <v>2112</v>
+        <v>2107</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
@@ -2569,16 +2596,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
+        <v>88</v>
+      </c>
+      <c r="C93" t="s">
         <v>103</v>
       </c>
-      <c r="C93" t="s">
-        <v>105</v>
-      </c>
       <c r="D93">
-        <v>2131</v>
+        <v>2114</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
@@ -2589,16 +2616,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D94">
-        <v>2111</v>
+        <v>2084</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" t="s">
         <v>9</v>
@@ -2609,16 +2636,16 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D95">
-        <v>2133</v>
+        <v>2086</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F95" t="s">
         <v>9</v>
@@ -2629,13 +2656,13 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D96">
-        <v>2088</v>
+        <v>2105</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2649,13 +2676,13 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C97" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D97">
-        <v>2075</v>
+        <v>2113</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2669,16 +2696,16 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C98" t="s">
         <v>110</v>
       </c>
       <c r="D98">
-        <v>2067</v>
+        <v>2112</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>9</v>
@@ -2689,16 +2716,16 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C99" t="s">
         <v>111</v>
       </c>
       <c r="D99">
-        <v>2118</v>
+        <v>2155</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
@@ -2709,16 +2736,16 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C100" t="s">
         <v>112</v>
       </c>
       <c r="D100">
-        <v>2044</v>
+        <v>2131</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
@@ -2729,16 +2756,16 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
         <v>113</v>
       </c>
       <c r="D101">
-        <v>2083</v>
+        <v>2158</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>9</v>
@@ -2749,16 +2776,16 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C102" t="s">
         <v>114</v>
       </c>
       <c r="D102">
-        <v>2047</v>
+        <v>2133</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F102" t="s">
         <v>9</v>
@@ -2769,16 +2796,16 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" t="s">
         <v>115</v>
       </c>
-      <c r="C103" t="s">
-        <v>116</v>
-      </c>
       <c r="D103">
-        <v>655</v>
+        <v>2111</v>
       </c>
       <c r="E103">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="F103" t="s">
         <v>9</v>
@@ -2789,16 +2816,16 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C104" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D104">
-        <v>2130</v>
+        <v>2088</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104" t="s">
         <v>9</v>
@@ -2809,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D105">
-        <v>2106</v>
+        <v>2075</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
@@ -2829,13 +2856,13 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D106">
-        <v>2021</v>
+        <v>2118</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2849,18 +2876,198 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107">
+        <v>2067</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
         <v>120</v>
       </c>
-      <c r="D107">
+      <c r="D108">
+        <v>2044</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D109">
+        <v>2047</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>109</v>
+      </c>
+      <c r="C110" t="s">
+        <v>122</v>
+      </c>
+      <c r="D110">
+        <v>2083</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>124</v>
+      </c>
+      <c r="D111">
+        <v>655</v>
+      </c>
+      <c r="E111">
+        <v>16</v>
+      </c>
+      <c r="F111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>123</v>
+      </c>
+      <c r="C112" t="s">
+        <v>125</v>
+      </c>
+      <c r="D112">
+        <v>2156</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>123</v>
+      </c>
+      <c r="C113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D113">
+        <v>2106</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>127</v>
+      </c>
+      <c r="D114">
+        <v>2130</v>
+      </c>
+      <c r="E114">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>123</v>
+      </c>
+      <c r="C115" t="s">
+        <v>128</v>
+      </c>
+      <c r="D115">
+        <v>2021</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116">
         <v>2057</v>
       </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107" t="s">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
         <v>9</v>
       </c>
     </row>
